--- a/data/trans_camb/P12A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 10,0</t>
+          <t>-5,34; 10,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 10,42</t>
+          <t>-6,31; 11,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 14,37</t>
+          <t>-5,46; 13,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 1,81</t>
+          <t>-12,55; 7,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 2,77</t>
+          <t>-15,04; 6,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 14,47</t>
+          <t>-11,5; 1,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 4,0</t>
+          <t>-9,99; 3,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,48</t>
+          <t>-9,34; 4,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 11,44</t>
+          <t>-2,27; 13,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,1; 6,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 4,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,69; 5,1</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 6,56</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 8,04</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 3,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,09%</t>
+          <t>-12,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,64%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>-36,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>-27,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>-20,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>53,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-17,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-7,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-3,75%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-20,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 109,96</t>
+          <t>-36,67; 119,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,3; 128,21</t>
+          <t>-43,76; 135,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,49; 142,17</t>
+          <t>-40,21; 165,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 29,46</t>
+          <t>-60,24; 80,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 40,23</t>
+          <t>-65,51; 63,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 166,33</t>
+          <t>-69,28; 19,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 45,17</t>
+          <t>-62,29; 44,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 49,69</t>
+          <t>-61,54; 55,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 115,37</t>
+          <t>-19,16; 240,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-56,09; 57,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-41,82; 50,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-39,54; 54,35</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-35,93; 69,35</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-33,78; 91,61</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-51,17; 30,79</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 10,2</t>
+          <t>-4,54; 11,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 15,62</t>
+          <t>-1,62; 15,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 5,83</t>
+          <t>-5,74; 15,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,47</t>
+          <t>-13,68; 10,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,1</t>
+          <t>-3,8; 12,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 10,94</t>
+          <t>-6,35; 2,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,25</t>
+          <t>-4,42; 6,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,07</t>
+          <t>0,38; 12,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 6,79</t>
+          <t>-6,54; 8,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 9,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 6,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 9,95</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 11,9</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 6,9</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,75%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,78%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>-22,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>54,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31,73%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 174,28</t>
+          <t>-40,78; 193,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 274,16</t>
+          <t>-16,94; 273,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 105,69</t>
+          <t>-57,26; 314,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,77; 67,98</t>
+          <t>-71,5; 201,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 147,61</t>
+          <t>-32,84; 272,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 257,28</t>
+          <t>-66,92; 78,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,9; 91,58</t>
+          <t>-48,67; 146,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 147,73</t>
+          <t>-4,56; 312,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 120,21</t>
+          <t>-40,77; 92,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-35,76; 125,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-35,65; 113,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; 157,78</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; 209,54</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-47,39; 73,13</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-23,67; 111,79</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>0,82</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 9,65</t>
+          <t>-5,39; 9,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 11,36</t>
+          <t>-7,4; 8,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 11,14</t>
+          <t>-6,97; 6,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,99</t>
+          <t>-2,89; 12,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 5,05</t>
+          <t>-6,28; 8,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,61</t>
+          <t>-4,16; 5,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 6,0</t>
+          <t>-4,57; 4,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,24</t>
+          <t>-4,98; 5,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,88</t>
+          <t>-3,59; 8,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; 5,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 5,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 4,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 4,62</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 8,05</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 5,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-8,1%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>28,14%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 175,22</t>
+          <t>-46,86; 170,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,25; 200,87</t>
+          <t>-60,25; 138,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 214,2</t>
+          <t>-50,55; 107,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 65,31</t>
+          <t>-24,91; 155,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 64,59</t>
+          <t>-41,39; 87,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 116,28</t>
+          <t>-31,99; 66,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 83,52</t>
+          <t>-34,57; 56,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 85,85</t>
+          <t>-39,05; 65,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 119,95</t>
+          <t>-25,95; 102,72</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-42,3; 46,81</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-26,77; 69,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,61; 56,66</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-32,75; 59,49</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 90,36</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-31,43; 47,05</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,47</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 5,86</t>
+          <t>-5,59; 5,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 8,07</t>
+          <t>-4,86; 6,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,9; 24,04</t>
+          <t>-3,65; 8,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,65</t>
+          <t>-2,59; 13,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 6,47</t>
+          <t>-15,82; 2,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 8,64</t>
+          <t>-6,29; 4,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,03</t>
+          <t>-4,97; 6,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 4,91</t>
+          <t>-0,34; 12,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,13</t>
+          <t>-9,67; 4,89</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 9,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 3,06</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 4,79</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 8,74</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 6,73</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 2,98</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>124,14%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>-26,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>-7,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>-10,28%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-12,21%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 60,78</t>
+          <t>-35,68; 54,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 86,9</t>
+          <t>-30,96; 64,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,39; 243,31</t>
+          <t>-23,72; 82,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 36,37</t>
+          <t>-15,47; 100,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 49,57</t>
+          <t>-48,71; 12,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 63,7</t>
+          <t>-33,73; 32,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 32,42</t>
+          <t>-26,04; 49,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 39,13</t>
+          <t>-1,97; 92,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,78; 114,38</t>
+          <t>-35,7; 25,3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-24,77; 65,1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-27,95; 24,31</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; 38,29</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 70,33</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-18,23; 37,93</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-32,6; 15,85</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,51</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,36</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,22</t>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>10,07</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 9,76</t>
+          <t>-3,48; 10,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 13,08</t>
+          <t>-1,31; 14,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,58; 30,0</t>
+          <t>-2,55; 12,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 9,55</t>
+          <t>8,08; 27,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 8,97</t>
+          <t>-9,03; 12,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 18,09</t>
+          <t>-5,49; 8,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,96</t>
+          <t>-5,11; 9,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,82</t>
+          <t>-3,55; 12,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,41; 21,62</t>
+          <t>-6,69; 11,03</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,65; 6,8</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 7,69</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 9,11</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 10,54</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 15,68</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 6,7</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>128,62%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>59,73%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-5,85%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 78,14</t>
+          <t>-20,25; 80,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 103,28</t>
+          <t>-6,69; 110,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>57,87; 236,51</t>
+          <t>-13,5; 100,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 67,56</t>
+          <t>32,27; 158,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 65,54</t>
+          <t>-21,9; 40,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,3; 133,23</t>
+          <t>-26,57; 58,85</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 49,11</t>
+          <t>-23,36; 64,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 62,51</t>
+          <t>-16,31; 88,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>47,09; 150,52</t>
+          <t>-24,71; 58,9</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-31,65; 29,41</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 54,88</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 64,14</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 71,48</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 82,53</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; 23,79</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>18,47</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 6,58</t>
+          <t>-13,23; 6,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 9,42</t>
+          <t>-10,78; 9,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 17,0</t>
+          <t>-14,54; 6,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 12,65</t>
+          <t>6,92; 29,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 8,66</t>
+          <t>-3,07; 19,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 9,61</t>
+          <t>-7,74; 9,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 6,82</t>
+          <t>-8,86; 7,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 6,24</t>
+          <t>-8,07; 11,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 9,67</t>
+          <t>-10,77; 9,93</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; 13,55</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 5,62</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 6,45</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 6,33</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 15,93</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 13,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-15,61%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>-15,64%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-2,5%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>32,92%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,61; 36,4</t>
+          <t>-47,21; 36,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 52,01</t>
+          <t>-37,9; 51,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 92,74</t>
+          <t>-51,23; 32,81</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 56,96</t>
+          <t>25,4; 224,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 39,23</t>
+          <t>-9,41; 81,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 44,17</t>
+          <t>-25,45; 43,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 31,16</t>
+          <t>-27,58; 34,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 27,72</t>
+          <t>-25,95; 51,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 45,39</t>
+          <t>-32,61; 44,74</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-24,12; 67,74</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-27,14; 24,95</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-24,13; 28,86</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-28,84; 30,6</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 77,62</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 59,77</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,25</t>
+          <t>-1,98; 4,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,68</t>
+          <t>-1,0; 5,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,06</t>
+          <t>-1,78; 5,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,77</t>
+          <t>2,67; 10,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,9</t>
+          <t>-3,27; 4,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,84</t>
+          <t>-3,73; 2,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,5</t>
+          <t>-3,23; 2,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,27</t>
+          <t>-0,56; 6,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,94</t>
+          <t>-2,0; 5,35</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 3,77</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,46</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 3,09</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 4,68</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 6,55</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,92</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 35,78</t>
+          <t>-13,72; 37,22</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 47,38</t>
+          <t>-7,38; 45,15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>31,09; 100,3</t>
+          <t>-12,51; 45,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 19,89</t>
+          <t>14,59; 79,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 21,66</t>
+          <t>-13,85; 24,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,35; 56,2</t>
+          <t>-21,75; 14,38</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 18,49</t>
+          <t>-18,39; 20,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 24,63</t>
+          <t>-3,25; 42,04</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>25,19; 68,09</t>
+          <t>-9,73; 32,93</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-15,42; 21,56</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 18,33</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 22,29</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 34,81</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 42,14</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 15,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
